--- a/theo/outputs/YM/correlations.xlsx
+++ b/theo/outputs/YM/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.6709053845689839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.06136761421252006</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1198311855663487</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4762132091440042</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.6486729393155122</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05801360713940026</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05743941539813919</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3126235543321652</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3091629409507072</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05801360713940026</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05743941539813919</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3126235543321652</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3091629409507072</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.1107870446399128</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.1183402235243829</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.1580005190735776</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.6709053845689839</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.0250330834065265</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.1285063007819253</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.3566193301123223</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.5451296530211385</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.1112303834153116</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1104154942370649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.6643722995304352</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.6606015411758828</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.04385552869500711</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.04466990954796589</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.6427503391853352</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.6389991133355718</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1594166634337631</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.1976756751104669</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.1560688906042551</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.06136761421252006</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.0250330834065265</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.5261242306123461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.09410654402073382</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.0545197369909263</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.1053704273064508</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.106069861048898</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.01740063051759443</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.01789820290543754</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.004135867616264007</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.003660409326339744</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.02568480639665345</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.02621330786720581</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4934183597186321</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.4793962457913151</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9242656199155591</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1198311855663487</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.1285063007819253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.5261242306123461</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.3159863002801884</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.03361096652841199</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1186526444624133</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1180444825010127</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.11786422577072</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.1174884819478631</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>-0.03466612980619956</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>-0.03495594357340438</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1203803057471299</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1200150611048695</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.4800785759197241</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.3323224356631595</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.4045366497432427</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4762132091440042</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.3566193301123223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.09410654402073382</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.3159863002801884</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.106368429576247</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.02035540866150055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.02070349059999923</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.3154126890945332</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.3150419891845975</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>-0.01228138473437456</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>-0.01173137023459135</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.3096292553153064</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.3093008353082344</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2261147541385751</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.2067807961888474</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.2328311361284822</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.6486729393155122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.5451296530211385</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.0545197369909263</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.03361096652841199</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.106368429576247</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.0407006908406753</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.04143777744074662</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.2644165662470512</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.2692596818111716</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.004691667067447517</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.004687480446384978</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.2583778551538545</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.2631146579396846</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.09061612994521542</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>-0.08129162540765782</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.07656020551002603</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05801360713940026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.1112303834153116</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.1053704273064508</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1186526444624133</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.02035540866150055</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.0407006908406753</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999691168818973</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1635921872677305</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1633354666397503</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.07105809344635702</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.07143727808635571</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1513225419359546</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1510999664624996</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.00849552013710983</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.004865306007953173</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.08319979467984158</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05743941539813919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1104154942370649</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.106069861048898</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1180444825010127</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.02070349059999923</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.04143777744074662</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999691168818973</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1632924248634436</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1630421281452495</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.0711401900038641</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.07152183782228119</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1510170397475464</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1508008014333954</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.007150207836197843</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.003852423881665228</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.08371613051363937</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3126235543321652</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.6643722995304352</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.01740063051759443</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.11786422577072</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.3154126890945332</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.2644165662470512</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1635921872677305</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1632924248634436</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999799626210295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.04477559293874961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.04573110991876137</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9658086623791368</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9657224520784846</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.1026014877702954</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.1549261472529552</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.111281379452694</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3091629409507072</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.6606015411758828</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.01789820290543754</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.1174884819478631</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.3150419891845975</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.2692596818111716</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1633354666397503</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1630421281452495</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999799626210295</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.04443276732158473</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.04538884174607819</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9658277381875315</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9657799944937395</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.1017039157278992</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.1542187896914098</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1106829983486341</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05801360713940026</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.04385552869500711</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.004135867616264007</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>-0.03466612980619956</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>-0.01228138473437456</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.004691667067447517</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.07105809344635702</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.0711401900038641</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.04477559293874961</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.04443276732158473</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999691168818973</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1635921872677305</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1633354666397503</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.0307558677619463</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.04359355809696758</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.007932984467755264</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05743941539813919</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.04466990954796589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.003660409326339744</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>-0.03495594357340438</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>-0.01173137023459135</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.004687480446384978</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.07143727808635571</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.07152183782228119</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.04573110991876137</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.04538884174607819</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999691168818973</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1632924248634436</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1630421281452495</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.0305691339770677</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.04341421915093385</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.008439815039608023</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3126235543321652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.6427503391853352</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.02568480639665345</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1203803057471299</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.3096292553153064</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.2583778551538545</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1513225419359546</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1510170397475464</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9658086623791368</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9658277381875315</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1635921872677305</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1632924248634436</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999799626210295</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.09766900034771031</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.151231061190258</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1051243005468077</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3091629409507072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.6389991133355718</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.02621330786720581</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1200150611048695</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.3093008353082344</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.2631146579396846</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1510999664624996</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1508008014333954</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9657224520784846</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9657799944937395</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1633354666397503</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1630421281452495</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999799626210295</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.09675136377288988</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.1504889423568157</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.1045133252430673</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.1107870446399128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1594166634337631</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4934183597186321</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.4800785759197241</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2261147541385751</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.09061612994521542</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.00849552013710983</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.007150207836197843</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.1026014877702954</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.1017039157278992</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.0307558677619463</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.0305691339770677</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.09766900034771031</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.09675136377288988</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.8344115678371071</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5396547582335527</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.1183402235243829</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.1976756751104669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.4793962457913151</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.3323224356631595</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.2067807961888474</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>-0.08129162540765782</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.004865306007953173</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.003852423881665228</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.1549261472529552</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.1542187896914098</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.04359355809696758</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.04341421915093385</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.151231061190258</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.1504889423568157</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.8344115678371071</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.5273931943296059</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.1580005190735776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.1560688906042551</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9242656199155591</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.4045366497432427</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.2328311361284822</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.07656020551002603</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.08319979467984158</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.08371613051363937</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.111281379452694</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1106829983486341</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.007932984467755264</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.008439815039608023</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1051243005468077</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.1045133252430673</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5396547582335527</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.5273931943296059</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.5840824473648782</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.455000593572682</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>0.4719580605659977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.7669156073198289</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.6683930580999179</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02779843343555058</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02778188385300364</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1820662683897539</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1807618711658061</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02779843343555058</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02778188385300364</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1820662683897539</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1807618711658061</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.04588886450162203</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.2054743945360346</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.2303380439426766</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.5840824473648782</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.3519777606792026</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.3627780691468455</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.5976946365291153</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8014364480532064</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05113614629233817</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05120044977994019</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2876258174966575</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.289523375877094</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.06059000402563694</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.06050931240641793</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2683628301568104</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2702893168238716</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.03383899982466638</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.1386990896159354</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.1844380142138016</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.455000593572682</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.3519777606792026</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.5480994153237913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.544538943346351</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.3255821745140017</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.05514308922000978</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.05214251415350659</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.001393637244234236</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.001828421168135785</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.01591035185871978</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.01538533350920227</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.0005742707331382339</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.0001402469276389722</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4702985537491828</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>-0.05017012814088997</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.06863391132389822</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>0.4719580605659977</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.3627780691468455</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.5480994153237913</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.6222505343266554</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.3580522710722536</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.04704460887528894</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.04740299018617658</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.00344130317987308</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.003591929713529886</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.01528738022740135</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.01483354649792626</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.006155496721263383</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.00624469220596125</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.480370451439045</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.169876013151614</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.1111662481969996</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.7669156073198289</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.5976946365291153</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.544538943346351</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.6222505343266554</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.5754149676379244</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.01254432416079044</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.01218567451274035</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.01753992991238964</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.01720704809460773</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.01933437700451244</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.01902250169688809</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.0187742886070375</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.01844708232749234</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.08553698315047675</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2259087478124937</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.2773062681757205</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.6683930580999179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8014364480532064</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.3255821745140017</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.3580522710722536</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.5754149676379244</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05040574218152318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05025655422782754</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3422929837939672</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3403633278360607</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.04600896485174101</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.04588593182756109</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.341540269598113</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3396145501947045</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03637773212640141</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.1422166713344429</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.1391213051907648</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02779843343555058</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05113614629233817</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.05514308922000978</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.04704460887528894</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.01254432416079044</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05040574218152318</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9998529782720397</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1699262258148351</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1696712593691492</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.03410033569133187</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.03413081015845074</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1637906126204821</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1635754700018392</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1126235053198702</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.01933046438326733</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.03751162514676581</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02778188385300364</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05120044977994019</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.05214251415350659</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.04740299018617658</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.01218567451274035</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05025655422782754</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9998529782720397</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1697177013897054</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1694987250263699</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.03394664581043123</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.03399300849741366</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1636127818605958</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1634311409984279</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1097687344138949</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.01957439516255103</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.03708644070468779</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1820662683897539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2876258174966575</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.001393637244234236</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.00344130317987308</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.01753992991238964</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3422929837939672</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1699262258148351</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1697177013897054</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998910160156508</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.01631056956711492</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.01643958116530039</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9686081408901812</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9685579307785034</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.005092323852175481</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.01299082515378854</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.06697144811146896</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1807618711658061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.289523375877094</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.001828421168135785</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.003591929713529886</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.01720704809460773</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3403633278360607</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1696712593691492</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1694987250263699</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998910160156508</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.01675965984650967</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.01690695993129315</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9684503112582182</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9686092648705688</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.005707167202659832</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.01314940199039878</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.06553075291963016</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02779843343555058</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.06059000402563694</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.01591035185871978</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.01528738022740135</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.01933437700451244</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.04600896485174101</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.03410033569133187</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.03394664581043123</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.01631056956711492</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.01675965984650967</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9998529782720397</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1699262258148351</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1696712593691492</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>-0.00268172504853222</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.05968010937881869</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.0596046909340015</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02778188385300364</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.06050931240641793</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.01538533350920227</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.01483354649792626</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.01902250169688809</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.04588593182756109</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.03413081015845074</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.03399300849741366</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.01643958116530039</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.01690695993129315</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9998529782720397</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1697177013897054</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1694987250263699</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>-0.002734913005293024</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.05899276608704031</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.05839279795205178</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1820662683897539</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2683628301568104</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.0005742707331382339</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.006155496721263383</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.0187742886070375</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.341540269598113</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1637906126204821</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1636127818605958</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9686081408901812</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9684503112582182</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1699262258148351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1697177013897054</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998910160156508</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.005675810235081937</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.002373494019617189</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.07616673340811446</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1807618711658061</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2702893168238716</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.0001402469276389722</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.00624469220596125</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.01844708232749234</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3396145501947045</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1635754700018392</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1634311409984279</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9685579307785034</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9686092648705688</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1696712593691492</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1694987250263699</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998910160156508</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.00623090890793241</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.002636587072424723</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.07464829130293009</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.04588886450162203</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.03383899982466638</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4702985537491828</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.480370451439045</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.08553698315047675</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03637773212640141</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1126235053198702</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1097687344138949</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.005092323852175481</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.005707167202659832</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>-0.00268172504853222</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>-0.002734913005293024</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.005675810235081937</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.00623090890793241</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.1253511423146252</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.1892622979122381</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.2054743945360346</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.1386990896159354</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>-0.05017012814088997</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.169876013151614</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2259087478124937</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.1422166713344429</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.01933046438326733</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.01957439516255103</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.01299082515378854</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.01314940199039878</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.05968010937881869</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.05899276608704031</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.002373494019617189</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.002636587072424723</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.1253511423146252</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.6009975496269083</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.2303380439426766</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.1844380142138016</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.06863391132389822</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.1111662481969996</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.2773062681757205</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.1391213051907648</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.03751162514676581</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.03708644070468779</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.06697144811146896</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.06553075291963016</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.0596046909340015</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.05839279795205178</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.07616673340811446</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.07464829130293009</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.1892622979122381</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.6009975496269083</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.7826008584836921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.5678806715787039</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.5634458518919426</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.7330457888019308</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.7768816285588162</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.007069886033869563</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.006811346495008852</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.0277148371406142</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.02729313909998595</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.007069886033869563</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.006811346495008852</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.0277148371406142</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.02729313909998595</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.01471999321724896</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.04743610788636188</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>-0.0387870351457576</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.7826008584836921</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>0.2972114588401727</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>0.2802319403020317</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>0.3625473522520215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9752260799522514</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02353462654260153</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02304812283404465</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.08956296204706589</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.08785141770390739</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.01732288496798597</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.01775627738444636</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.0818452405209165</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.08015450791200419</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.02334514386852708</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.1315450143382449</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.007985421683975169</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.5678806715787039</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>0.2972114588401727</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.7035469317378602</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.7362167168978719</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>0.3055486411914686</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.02943594048157039</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.02692711451913876</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.05093241671897768</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.05004825384518095</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-2.619817328296919e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>-0.0005119390427414503</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.05009425241758986</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.04925569474397842</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.3952757108731715</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.007742263535732976</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.00616860495876903</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.5634458518919426</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>0.2802319403020317</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.7035469317378602</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.7694417644189649</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>0.2897391738197063</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.01358017831106936</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.01263794718308582</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.04919197229591902</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.04818134253187775</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.003380464062863517</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.002853911569177474</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>-0.04778571591658657</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>-0.04685583737041415</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.3746803412071735</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.07587080421043382</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>-0.03048578699533067</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.7330457888019308</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>0.3625473522520215</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.7362167168978719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.7694417644189649</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>0.3762573425092893</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>-0.01050917386874604</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>-0.01020489909572129</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>-0.06969663801081413</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>-0.06795798557859013</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.01092011463305303</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.01044114040179861</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>-0.06978653961185638</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>-0.06801339632014114</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.03419221811572867</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.07489254734922343</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.05475413951466418</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.7768816285588162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9752260799522514</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>0.3055486411914686</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>0.2897391738197063</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>0.3762573425092893</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.01856976240881847</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.0190003924896565</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1329773718044607</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1343652446026868</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.01064154672610373</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.01112895499153647</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1316167606696143</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1330164956147843</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.02437701119844302</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.1283445790745453</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>-0.01791198325781724</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.007069886033869563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02353462654260153</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.02943594048157039</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.01358017831106936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>-0.01050917386874604</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.01856976240881847</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9986986684085767</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1889352619256459</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1884212821792743</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.001717781003040292</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.001306553479747046</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1880250025740899</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1875952078517804</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.05860156306218846</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.01241857539059742</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.0805136278433491</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.006811346495008852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02304812283404465</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.02692711451913876</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.01263794718308582</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>-0.01020489909572129</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.0190003924896565</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9986986684085767</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1886756317282621</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1886412385796024</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.001181177560527658</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.0008064489277416245</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1878422788917981</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1878814446809236</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.05399068684401227</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.012833791306561</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.08212337898054786</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.0277148371406142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.08956296204706589</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.05093241671897768</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.04919197229591902</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>-0.06969663801081413</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1329773718044607</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1889352619256459</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1886756317282621</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9985803157768673</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.02224868117775174</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.02203214350971745</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9615931544097953</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9603299827295082</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.00518162269962491</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.006066734151285449</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>0.04486899755641688</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.02729313909998595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.08785141770390739</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.05004825384518095</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.04818134253187775</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>-0.06795798557859013</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1343652446026868</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1884212821792743</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1886412385796024</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9985803157768673</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.02198165669487882</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.02180700483411495</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9602437316596389</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9617238329587687</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.005279128564499134</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.006297750480631419</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>0.04541529411266568</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.007069886033869563</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.01732288496798597</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-2.619817328296919e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.003380464062863517</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.01092011463305303</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.01064154672610373</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.001717781003040292</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.001181177560527658</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.02224868117775174</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.02198165669487882</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9986986684085767</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1889352619256459</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1884212821792743</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.001594867464844412</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.0230466443793904</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.01083710123691882</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.006811346495008852</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.01775627738444636</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>-0.0005119390427414503</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.002853911569177474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.01044114040179861</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.01112895499153647</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.001306553479747046</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.0008064489277416245</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.02203214350971745</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.02180700483411495</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9986986684085767</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1886756317282621</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1886412385796024</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.001542898827828511</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.0216679292547876</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.01175570682787567</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.0277148371406142</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.0818452405209165</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.05009425241758986</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>-0.04778571591658657</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>-0.06978653961185638</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1316167606696143</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1880250025740899</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1878422788917981</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9615931544097953</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9602437316596389</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1889352619256459</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1886756317282621</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9985803157768673</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.005481253046618998</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.01065524683437197</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>0.04737940371786411</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.02729313909998595</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.08015450791200419</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.04925569474397842</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>-0.04685583737041415</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>-0.06801339632014114</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1330164956147843</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1875952078517804</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1878814446809236</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9603299827295082</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9617238329587687</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1884212821792743</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1886412385796024</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9985803157768673</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.005530497861906648</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.01068107306840043</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>0.04818034547781763</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.01471999321724896</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.02334514386852708</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.3952757108731715</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.3746803412071735</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.03419221811572867</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.02437701119844302</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.05860156306218846</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.05399068684401227</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.00518162269962491</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.005279128564499134</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.001594867464844412</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.001542898827828511</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.005481253046618998</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.005530497861906648</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.1013759267743949</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.04720281239199711</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.04743610788636188</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.1315450143382449</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.007742263535732976</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.07587080421043382</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.07489254734922343</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.1283445790745453</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.01241857539059742</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.012833791306561</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.006066734151285449</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.006297750480631419</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.0230466443793904</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.0216679292547876</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.01065524683437197</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.01068107306840043</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.1013759267743949</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.6757591069316629</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>-0.0387870351457576</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.007985421683975169</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.00616860495876903</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>-0.03048578699533067</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.05475413951466418</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>-0.01791198325781724</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.0805136278433491</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.08212337898054786</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>0.04486899755641688</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>0.04541529411266568</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.01083710123691882</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.01175570682787567</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>0.04737940371786411</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>0.04818034547781763</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.04720281239199711</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.6757591069316629</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
